--- a/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
+++ b/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakazawasugio/github/tsurugi-batch-template/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C49518F-2D12-2D44-B75F-21A40C56EC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EDEA5-A148-F543-A40D-FA3157EA80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27400" yWindow="-20880" windowWidth="28340" windowHeight="20300" tabRatio="672" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
+    <workbookView xWindow="10880" yWindow="-20920" windowWidth="28340" windowHeight="20300" tabRatio="672" activeTab="1" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
   </bookViews>
   <sheets>
     <sheet name="申込" sheetId="23" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
   <si>
     <t>No.</t>
   </si>
@@ -290,10 +290,6 @@
     <rPh sb="0" eb="2">
       <t>ザセキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>sheets</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -372,6 +368,14 @@
     <rPh sb="23" eb="25">
       <t>テイギ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>seats</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Tsurugi 1.4.0</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1297,6 +1301,57 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1355,57 +1410,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1734,7 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1759,107 +1763,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="78">
         <v>45778</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="80">
         <v>45778</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -1949,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>57</v>
@@ -2021,10 +2025,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>57</v>
@@ -2034,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2474,10 +2478,10 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -2485,8 +2489,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -2494,8 +2498,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -2503,8 +2507,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -2547,10 +2551,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -2571,10 +2575,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -2595,10 +2599,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -2627,108 +2631,127 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="B62:C62"/>
@@ -2745,25 +2768,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
@@ -2785,8 +2789,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2814,107 +2818,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="78">
         <v>45778</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="80">
         <v>45778</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="65"/>
+      <c r="F5" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="60"/>
+      <c r="C6" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="77"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -3004,10 +3008,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>57</v>
@@ -3040,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>57</v>
@@ -3076,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>57</v>
@@ -3112,10 +3116,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>58</v>
@@ -3536,10 +3540,10 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -3547,8 +3551,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -3556,8 +3560,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -3565,8 +3569,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -3609,10 +3613,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -3633,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -3657,10 +3661,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -3689,120 +3693,118 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="C36:D36"/>
@@ -3816,16 +3818,18 @@
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>

--- a/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
+++ b/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakazawasugio/github/tsurugi-batch-template/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EDEA5-A148-F543-A40D-FA3157EA80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E76D2F-E308-754F-B51C-2758FCAEC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="-20920" windowWidth="28340" windowHeight="20300" tabRatio="672" activeTab="1" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>No.</t>
   </si>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>Tsurugi 1.4.0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1301,57 +1309,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1410,6 +1367,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,107 +1771,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="61">
         <v>45778</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="63">
         <v>45778</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="82"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -2478,10 +2486,10 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -2489,8 +2497,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -2498,8 +2506,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -2507,8 +2515,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -2551,10 +2559,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="77"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -2575,10 +2583,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="65"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -2599,10 +2607,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -2631,127 +2639,108 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="52"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="52"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="56"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="B62:C62"/>
@@ -2768,6 +2757,25 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
@@ -2790,7 +2798,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2818,107 +2826,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="61">
         <v>45778</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="63">
         <v>45778</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="82"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -2980,7 +2988,9 @@
       <c r="D14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="F14" s="40" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3026,9 @@
       <c r="D15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="F15" s="40" t="s">
         <v>13</v>
       </c>
@@ -3052,7 +3064,9 @@
       <c r="D16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="F16" s="43" t="s">
         <v>13</v>
       </c>
@@ -3090,7 +3104,7 @@
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="43" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G17" s="44"/>
       <c r="J17" s="1" t="str">
@@ -3126,7 +3140,7 @@
       </c>
       <c r="E18" s="42"/>
       <c r="F18" s="43" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G18" s="44"/>
       <c r="J18" s="1" t="str">
@@ -3540,10 +3554,10 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -3551,8 +3565,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -3560,8 +3574,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -3569,8 +3583,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="63"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -3613,10 +3627,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="77"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -3637,10 +3651,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="64" t="s">
+      <c r="E48" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="65"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -3661,10 +3675,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="77"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -3693,118 +3707,120 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="52"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="52"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="71"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="56"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="C36:D36"/>
@@ -3818,18 +3834,16 @@
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>

--- a/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
+++ b/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/tickets_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakazawasugio/github/tsurugi-batch-template/tools/src/test/resources/data/jp/gr/java_conf/nkzw/tbt/tools/TgData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E76D2F-E308-754F-B51C-2758FCAEC0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B35E716-3C0F-9A40-8BF5-F4F4F1861BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="-20920" windowWidth="28340" windowHeight="20300" tabRatio="672" activeTab="1" xr2:uid="{6C6E728F-E1B1-40F2-A28A-BFA250D2C246}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>No.</t>
   </si>
@@ -384,6 +384,14 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>seat_idx1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>row_no,seat_no</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1309,6 +1317,57 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1367,57 +1426,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1771,107 +1779,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="78">
         <v>45778</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="80">
         <v>45778</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -2486,10 +2494,10 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
@@ -2497,8 +2505,8 @@
     <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -2506,8 +2514,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -2515,8 +2523,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -2559,10 +2567,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -2583,10 +2591,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -2607,10 +2615,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -2639,108 +2647,127 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="B62:C62"/>
@@ -2757,25 +2784,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
@@ -2797,8 +2805,8 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2826,107 +2834,107 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:14" ht="18">
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="78">
         <v>45778</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="18">
       <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="80">
         <v>45778</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -3554,19 +3562,25 @@
       <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="72"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="57"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="35"/>
@@ -3574,8 +3588,8 @@
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="35"/>
@@ -3583,8 +3597,8 @@
     <row r="39" spans="1:7" ht="19" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="36"/>
@@ -3627,10 +3641,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="18"/>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="65"/>
       <c r="G45" s="19" t="s">
         <v>32</v>
       </c>
@@ -3651,10 +3665,10 @@
         <v>21</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="65"/>
       <c r="G48" s="19" t="s">
         <v>35</v>
       </c>
@@ -3675,10 +3689,10 @@
         <v>38</v>
       </c>
       <c r="D51" s="18"/>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="77"/>
+      <c r="F51" s="65"/>
       <c r="G51" s="19" t="s">
         <v>40</v>
       </c>
@@ -3707,120 +3721,118 @@
       <c r="A55" s="24">
         <v>1</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="25">
         <v>2</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="25">
         <v>3</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="25">
         <v>4</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="25">
         <v>5</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="25">
         <v>6</v>
       </c>
-      <c r="B60" s="69" t="s">
+      <c r="B60" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="25">
         <v>7</v>
       </c>
-      <c r="B61" s="69" t="s">
+      <c r="B61" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" ht="19" thickBot="1">
       <c r="A62" s="26">
         <v>8</v>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B62" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="81"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="C36:D36"/>
@@ -3834,16 +3846,18 @@
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <hyperlinks>
